--- a/data/outputs/management/85.xlsx
+++ b/data/outputs/management/85.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ111"/>
+  <dimension ref="A1:BR111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +928,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1325,6 +1332,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1536,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1727,6 +1736,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1930,6 +1940,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>6515157</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2145,6 +2160,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4704816</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2344,6 +2364,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2559,6 +2580,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2766,6 +2788,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2965,6 +2988,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3164,6 +3188,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3363,6 +3388,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3570,6 +3596,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3769,6 +3796,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3976,6 +4004,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4707762</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4179,6 +4212,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4378,6 +4412,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4593,6 +4628,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4800,6 +4836,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5007,6 +5044,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4596234</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5226,6 +5268,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4409690</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5429,6 +5476,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4745599</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5628,6 +5680,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5835,6 +5888,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4837513</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6050,6 +6108,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6249,6 +6308,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6456,6 +6516,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>45070276</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6659,6 +6724,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6858,6 +6924,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7073,6 +7140,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7284,6 +7352,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7495,6 +7564,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7706,6 +7776,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7905,6 +7976,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>16180748</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8104,6 +8180,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8315,6 +8392,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4511870</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8526,6 +8608,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>32683474</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8733,6 +8820,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4066895</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8932,6 +9024,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9131,6 +9224,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>22925499</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9334,6 +9432,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9545,6 +9644,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9760,6 +9860,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9971,6 +10072,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4247518</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10182,6 +10288,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10385,6 +10492,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10596,6 +10704,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10795,6 +10904,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11002,6 +11112,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>43912662</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11217,6 +11332,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11424,6 +11540,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11635,6 +11752,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11838,6 +11956,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12053,6 +12172,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>4129847</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12252,6 +12376,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12459,6 +12584,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>3981900</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12666,6 +12796,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4072321</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12873,6 +13008,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13080,6 +13216,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13295,6 +13432,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13502,6 +13640,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13709,6 +13848,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13912,6 +14052,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14123,6 +14264,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14330,6 +14472,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14533,6 +14676,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>4303279</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14748,6 +14896,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14967,6 +15116,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>5003863</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15174,6 +15328,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4621648</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15373,6 +15532,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15584,6 +15744,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15787,6 +15948,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15990,6 +16152,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>4003748</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16189,6 +16356,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16396,6 +16564,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16607,6 +16776,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16806,6 +16976,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17013,6 +17184,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17212,6 +17384,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17411,6 +17584,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17610,6 +17784,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17817,6 +17992,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18032,6 +18208,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>5721331</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18231,6 +18412,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18450,6 +18632,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>3732033</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18649,6 +18836,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18848,6 +19036,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19063,6 +19252,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19270,6 +19460,11 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>7387358</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19477,6 +19672,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19676,6 +19872,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19883,6 +20080,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>4538727</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20082,6 +20284,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20297,6 +20500,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20504,6 +20708,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20711,6 +20916,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20910,6 +21116,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21117,6 +21324,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21324,6 +21532,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21527,6 +21736,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21742,6 +21952,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21829,7 +22040,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t> [13J03694]</t>
+          <t>[13J03694]</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
@@ -21953,6 +22164,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22156,6 +22368,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22363,6 +22576,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>3046961</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22574,6 +22792,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22777,6 +22996,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22976,6 +23196,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23183,6 +23404,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23394,6 +23616,11 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>4398236</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
